--- a/msff/xls/weightedGPA.xlsx
+++ b/msff/xls/weightedGPA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFDE9B5-D120-4004-A20F-3D946E775BB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841DCE03-23C5-46F9-8D16-07F01A13ACD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="9645" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>A1</t>
   </si>
@@ -88,16 +88,22 @@
     <t>if average grade is D7</t>
   </si>
   <si>
-    <t>eg:</t>
-  </si>
-  <si>
     <t>-&gt; add up to aggregate GPA =</t>
   </si>
   <si>
     <t>Rule 1: if showing 4-point improvement over  mid-year progress report, then no iPhone8 penalty</t>
   </si>
   <si>
-    <t>Rule 2: if no significant improvement, then threshold of 33 is used to decide iPhone8 lock-up for 6M</t>
+    <t>eg 1:</t>
+  </si>
+  <si>
+    <t>eg 2:</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>Rule 2: if no significant improvement, then threshold of 32.5 is used to decide iPhone8 lock-up for 6M</t>
   </si>
 </sst>
 </file>
@@ -191,15 +197,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AC17"/>
+  <dimension ref="B1:AC19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="B19" sqref="B19:AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,8 +508,8 @@
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -527,44 +533,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="15">
         <f>C4</f>
         <v>8</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <v>8</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <v>8</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="15">
         <v>8</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="15">
         <f>G4</f>
         <v>4</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <f>H4</f>
         <v>4</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="15">
         <f>I4</f>
         <v>4</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f>I4*2</f>
+        <f t="shared" ref="C4:C10" si="0">I4*2</f>
         <v>8</v>
       </c>
       <c r="D4" s="2">
@@ -586,22 +592,22 @@
         <v>4</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="11">
-        <f t="shared" ref="K4:K10" si="0">SUM(C4:I4)</f>
+        <f t="shared" ref="K4:K10" si="1">SUM(C4:I4)</f>
         <v>44</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="8">
-        <f>I5*2</f>
+        <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
       <c r="D5" s="8">
@@ -623,22 +629,22 @@
         <v>3.6</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39.6</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="2">
-        <f>I6*2</f>
+        <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
       <c r="D6" s="2">
@@ -660,22 +666,22 @@
         <v>3.2</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.200000000000003</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="8">
-        <f>I7*2</f>
+        <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
       <c r="D7" s="8">
@@ -697,22 +703,22 @@
         <v>2.8</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30.8</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <f>I8*2</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="D8" s="2">
@@ -734,22 +740,22 @@
         <v>2.4</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26.399999999999995</v>
       </c>
       <c r="L8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="8">
-        <f>I9*2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D9" s="8">
@@ -771,22 +777,22 @@
         <v>2</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2">
-        <f>I10*2</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
       <c r="D10" s="2">
@@ -808,17 +814,17 @@
         <v>1.6</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.600000000000001</v>
       </c>
       <c r="L10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -830,165 +836,225 @@
       <c r="J11" s="5"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="14" t="s">
+    <row r="12" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="14" t="s">
+      <c r="H12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>3</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14">
+    <row r="13" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="16"/>
+      <c r="C13" s="13">
         <v>6.4</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>7.2</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>5.6</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>5.6</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>3.2</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>2.4</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>2.8</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" ref="K13" si="2">SUM(C13:I13)</f>
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="16"/>
+      <c r="C15" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="D15" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="E15" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="F15" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2.8</v>
+      </c>
+      <c r="H15" s="13">
+        <v>2.4</v>
+      </c>
+      <c r="I15" s="13">
+        <v>2.8</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" ref="K15" si="3">SUM(C15:I15)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="11">
-        <f t="shared" ref="K13" si="1">SUM(C13:I13)</f>
-        <v>33.200000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-    </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B15:AC15"/>
-    <mergeCell ref="B16:AC16"/>
     <mergeCell ref="B17:AC17"/>
+    <mergeCell ref="B18:AC18"/>
+    <mergeCell ref="B19:AC19"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/msff/xls/weightedGPA.xlsx
+++ b/msff/xls/weightedGPA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841DCE03-23C5-46F9-8D16-07F01A13ACD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3BE023-D443-4432-9746-601C181773D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="9645" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28560" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>A1</t>
   </si>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>Rule 2: if no significant improvement, then threshold of 32.5 is used to decide iPhone8 lock-up for 6M</t>
+  </si>
+  <si>
+    <t>mid
+year</t>
   </si>
 </sst>
 </file>
@@ -183,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -206,6 +210,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AC19"/>
+  <dimension ref="B1:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:AC19"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,14 +844,14 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
-        <v>24</v>
+      <c r="B12" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>3</v>
@@ -853,13 +860,13 @@
         <v>3</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="11"/>
@@ -870,7 +877,7 @@
         <v>6.4</v>
       </c>
       <c r="D13" s="13">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="E13" s="13">
         <v>5.6</v>
@@ -879,28 +886,28 @@
         <v>5.6</v>
       </c>
       <c r="G13" s="13">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H13" s="13">
+        <v>3.6</v>
+      </c>
+      <c r="I13" s="13">
         <v>2.4</v>
-      </c>
-      <c r="I13" s="13">
-        <v>2.8</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K13" s="11">
         <f t="shared" ref="K13" si="2">SUM(C13:I13)</f>
-        <v>33.200000000000003</v>
+        <v>32.800000000000004</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>1</v>
@@ -912,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>4</v>
@@ -926,7 +933,7 @@
     <row r="15" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
       <c r="C15" s="13">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="D15" s="13">
         <v>7.2</v>
@@ -938,7 +945,7 @@
         <v>5.6</v>
       </c>
       <c r="G15" s="13">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H15" s="13">
         <v>2.4</v>
@@ -951,75 +958,72 @@
       </c>
       <c r="K15" s="11">
         <f t="shared" ref="K15" si="3">SUM(C15:I15)</f>
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="D17" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="E17" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="F17" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="G17" s="13">
+        <v>2.8</v>
+      </c>
+      <c r="H17" s="13">
+        <v>2.4</v>
+      </c>
+      <c r="I17" s="13">
+        <v>2.8</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" ref="K17" si="4">SUM(C17:I17)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-    </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -1048,13 +1052,76 @@
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
     </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B17:AC17"/>
-    <mergeCell ref="B18:AC18"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B19:AC19"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B20:AC20"/>
+    <mergeCell ref="B21:AC21"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/msff/xls/weightedGPA.xlsx
+++ b/msff/xls/weightedGPA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3BE023-D443-4432-9746-601C181773D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD4938F-5A5D-4691-97BA-168FD0150992}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28560" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="-120" windowWidth="28500" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>A1</t>
   </si>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>mid
+year</t>
+  </si>
+  <si>
+    <t>year
+end</t>
+  </si>
+  <si>
+    <t>full
 year</t>
   </si>
 </sst>
@@ -146,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +164,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -187,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -207,11 +227,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AC21"/>
+  <dimension ref="B1:AC26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,285 +872,417 @@
       <c r="J11" s="5"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="18" t="s">
-        <v>28</v>
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="13">
         <v>6.4</v>
       </c>
       <c r="D13" s="13">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="E13" s="13">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="F13" s="13">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="G13" s="13">
         <v>3.6</v>
       </c>
       <c r="H13" s="13">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="I13" s="13">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K13" s="11">
         <f t="shared" ref="K13" si="2">SUM(C13:I13)</f>
-        <v>32.800000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
-        <v>24</v>
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>2</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="13">
         <v>6.4</v>
       </c>
       <c r="D15" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="E15" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="F15" s="13">
         <v>7.2</v>
       </c>
-      <c r="E15" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="F15" s="13">
-        <v>5.6</v>
-      </c>
       <c r="G15" s="13">
+        <v>3.6</v>
+      </c>
+      <c r="H15" s="13">
+        <v>2</v>
+      </c>
+      <c r="I15" s="13">
         <v>3.2</v>
-      </c>
-      <c r="H15" s="13">
-        <v>2.4</v>
-      </c>
-      <c r="I15" s="13">
-        <v>2.8</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="11">
         <f t="shared" ref="K15" si="3">SUM(C15:I15)</f>
-        <v>33.200000000000003</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="5"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="13">
+      <c r="B17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="18"/>
+      <c r="C18" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="D18" s="13">
         <v>5.6</v>
       </c>
-      <c r="D17" s="13">
+      <c r="E18" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="F18" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="G18" s="13">
+        <v>3.6</v>
+      </c>
+      <c r="H18" s="13">
+        <v>3.6</v>
+      </c>
+      <c r="I18" s="13">
+        <v>2.4</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" ref="K18" si="4">SUM(C18:I18)</f>
+        <v>32.800000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="18"/>
+      <c r="C20" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="D20" s="13">
         <v>7.2</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E20" s="13">
         <v>5.6</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F20" s="13">
         <v>5.6</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G20" s="13">
+        <v>3.2</v>
+      </c>
+      <c r="H20" s="13">
+        <v>2.4</v>
+      </c>
+      <c r="I20" s="13">
         <v>2.8</v>
       </c>
-      <c r="H17" s="13">
+      <c r="J20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" ref="K20" si="5">SUM(C20:I20)</f>
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="18"/>
+      <c r="C22" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="D22" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="E22" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="F22" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="G22" s="13">
+        <v>2.8</v>
+      </c>
+      <c r="H22" s="13">
         <v>2.4</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I22" s="13">
         <v>2.8</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="11">
-        <f t="shared" ref="K17" si="4">SUM(C17:I17)</f>
+      <c r="K22" s="11">
+        <f t="shared" ref="K22" si="6">SUM(C22:I22)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-    </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B19:AC19"/>
-    <mergeCell ref="B20:AC20"/>
-    <mergeCell ref="B21:AC21"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B24:AC24"/>
+    <mergeCell ref="B25:AC25"/>
+    <mergeCell ref="B26:AC26"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/msff/xls/weightedGPA.xlsx
+++ b/msff/xls/weightedGPA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD4938F-5A5D-4691-97BA-168FD0150992}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1245B0F5-A0EE-45DE-BDE7-93702D3BE141}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="-120" windowWidth="28500" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="1170" windowWidth="21195" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>A1</t>
   </si>
@@ -92,15 +92,6 @@
   </si>
   <si>
     <t>Rule 1: if showing 4-point improvement over  mid-year progress report, then no iPhone8 penalty</t>
-  </si>
-  <si>
-    <t>eg 1:</t>
-  </si>
-  <si>
-    <t>eg 2:</t>
-  </si>
-  <si>
-    <t>b4</t>
   </si>
   <si>
     <t>Rule 2: if no significant improvement, then threshold of 32.5 is used to decide iPhone8 lock-up for 6M</t>
@@ -116,6 +107,12 @@
   <si>
     <t>full
 year</t>
+  </si>
+  <si>
+    <t>WA3</t>
+  </si>
+  <si>
+    <t>F9</t>
   </si>
 </sst>
 </file>
@@ -128,13 +125,6 @@
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -153,8 +143,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,13 +166,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,25 +210,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -235,12 +235,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AC26"/>
+  <dimension ref="B1:AC27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +558,7 @@
     <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -570,38 +588,38 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <f>C4</f>
         <v>8</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <v>8</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>8</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="12">
         <v>8</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="12">
         <f>G4</f>
         <v>4</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="12">
         <f>H4</f>
         <v>4</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="12">
         <f>I4</f>
         <v>4</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,7 +648,7 @@
       <c r="J4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="24">
         <f t="shared" ref="K4:K10" si="1">SUM(C4:I4)</f>
         <v>44</v>
       </c>
@@ -638,44 +656,44 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>7.2</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>7.2</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>7.2</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>3.6</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>3.6</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>3.6</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="25">
         <f t="shared" si="1"/>
         <v>39.6</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -704,7 +722,7 @@
       <c r="J6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="24">
         <f t="shared" si="1"/>
         <v>35.200000000000003</v>
       </c>
@@ -712,44 +730,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>5.6</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>5.6</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>5.6</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>2.8</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>2.8</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>2.8</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="25">
         <f t="shared" si="1"/>
         <v>30.8</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -778,7 +796,7 @@
       <c r="J8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="24">
         <f t="shared" si="1"/>
         <v>26.399999999999995</v>
       </c>
@@ -786,44 +804,44 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D9" s="8">
-        <v>4</v>
-      </c>
-      <c r="E9" s="8">
-        <v>4</v>
-      </c>
-      <c r="F9" s="8">
-        <v>4</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="D9" s="7">
+        <v>4</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7">
         <v>2</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>2</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,7 +870,7 @@
       <c r="J10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="24">
         <f t="shared" si="1"/>
         <v>17.600000000000001</v>
       </c>
@@ -860,7 +878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -870,350 +888,295 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="13" t="s">
+      <c r="H12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="26">
+        <f>SUM(C13:I13)</f>
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
-      <c r="C13" s="13">
+      <c r="C13" s="10">
         <v>6.4</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <v>6.4</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <v>4.8</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="10">
         <v>6.4</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="10">
         <v>3.6</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="10">
         <v>2.4</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="10">
         <v>2.8</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="20"/>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="2:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="11">
-        <f t="shared" ref="K13" si="2">SUM(C13:I13)</f>
-        <v>32.799999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+      <c r="K15" s="26">
+        <f>SUM(C16:I16)</f>
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="C16" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="D16" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="F16" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="G16" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="H16" s="10">
+        <v>2</v>
+      </c>
+      <c r="I16" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="2:29" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="F18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="26">
+        <f>SUM(C19:I19)</f>
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="10">
+        <v>8</v>
+      </c>
+      <c r="D19" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="G19" s="10">
+        <v>4</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="I19" s="10">
         <v>2</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="J19" s="20"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="2:29" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="13"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="20" t="s">
+      <c r="D21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="H21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
-      <c r="C15" s="13">
+      <c r="I21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="26">
+        <f>SUM(C22:I22)</f>
+        <v>32.800000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+      <c r="C22" s="10">
         <v>6.4</v>
       </c>
-      <c r="D15" s="13">
-        <v>6.4</v>
-      </c>
-      <c r="E15" s="13">
-        <v>4.8</v>
-      </c>
-      <c r="F15" s="13">
-        <v>7.2</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="D22" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="E22" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="F22" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="G22" s="10">
         <v>3.6</v>
       </c>
-      <c r="H15" s="13">
-        <v>2</v>
-      </c>
-      <c r="I15" s="13">
-        <v>3.2</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="11">
-        <f t="shared" ref="K15" si="3">SUM(C15:I15)</f>
-        <v>33.6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
-      <c r="C18" s="13">
-        <v>6.4</v>
-      </c>
-      <c r="D18" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="E18" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="F18" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="H22" s="10">
         <v>3.6</v>
       </c>
-      <c r="H18" s="13">
-        <v>3.6</v>
-      </c>
-      <c r="I18" s="13">
+      <c r="I22" s="10">
         <v>2.4</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="11">
-        <f t="shared" ref="K18" si="4">SUM(C18:I18)</f>
-        <v>32.800000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="18"/>
-      <c r="C20" s="13">
-        <v>6.4</v>
-      </c>
-      <c r="D20" s="13">
-        <v>7.2</v>
-      </c>
-      <c r="E20" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="F20" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="G20" s="13">
-        <v>3.2</v>
-      </c>
-      <c r="H20" s="13">
-        <v>2.4</v>
-      </c>
-      <c r="I20" s="13">
-        <v>2.8</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="11">
-        <f t="shared" ref="K20" si="5">SUM(C20:I20)</f>
-        <v>33.200000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="11"/>
-    </row>
-    <row r="22" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="18"/>
-      <c r="C22" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="D22" s="13">
-        <v>7.2</v>
-      </c>
-      <c r="E22" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="F22" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="G22" s="13">
-        <v>2.8</v>
-      </c>
-      <c r="H22" s="13">
-        <v>2.4</v>
-      </c>
-      <c r="I22" s="13">
-        <v>2.8</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="11">
-        <f t="shared" ref="K22" si="6">SUM(C22:I22)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="26"/>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -1244,7 +1207,9 @@
       <c r="AC25" s="19"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
+      <c r="B26" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -1273,18 +1238,55 @@
       <c r="AB26" s="19"/>
       <c r="AC26" s="19"/>
     </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B14:B15"/>
+  <mergeCells count="15">
+    <mergeCell ref="B26:AC26"/>
+    <mergeCell ref="B27:AC27"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B24:AC24"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B25:AC25"/>
-    <mergeCell ref="B26:AC26"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>